--- a/reference/AA16/data_comparison_AA16.xlsx
+++ b/reference/AA16/data_comparison_AA16.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\THUY TRANG\Documents\GitHub\MMB_forecast_application\reference\AA16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\MMB_forecast_application\reference\AA16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="9"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="papers_obs" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="132">
   <si>
     <t>consumption_obs</t>
   </si>
@@ -435,7 +435,10 @@
     <t>pcer_q_obs</t>
   </si>
   <si>
-    <t>LN(TOT*100/CLF16OV)</t>
+    <t>=</t>
+  </si>
+  <si>
+    <t>LN(TOT*100/CNP16OV)</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1297,7 +1299,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2289,7 +2290,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2403,7 +2403,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3195,7 +3194,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4187,7 +4185,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4346,7 +4343,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LN(TOT*100/CLF16OV)</c:v>
+                  <c:v>LN(TOT*100/CNP16OV)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5414,7 +5411,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>LN(TOT*100/CLF16OV)</c:v>
+                  <c:v>LN(TOT*100/CNP16OV)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6199,7 +6196,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6991,7 +6987,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7983,7 +7978,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8097,7 +8091,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8889,7 +8882,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9881,7 +9873,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -9995,7 +9986,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10909,7 +10899,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11023,7 +11012,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11815,7 +11803,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12807,7 +12794,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12921,7 +12907,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13713,7 +13698,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14705,7 +14689,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14819,7 +14802,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -15611,7 +15593,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16603,7 +16584,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16717,7 +16697,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -28207,12 +28186,14 @@
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Tabelle1"/>
+      <sheetName val="HPFilter"/>
     </sheetNames>
     <definedNames>
       <definedName name="HP"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
+      <sheetData sheetId="1" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -31220,7 +31201,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I129"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -51225,8 +51206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W129"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:B32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -51240,7 +51221,7 @@
         <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -51260,6 +51241,9 @@
       <c r="D2">
         <f>C2*$H$3+$I$3</f>
         <v>-1.29352625034943</v>
+      </c>
+      <c r="E2" t="s">
+        <v>130</v>
       </c>
       <c r="H2" t="s">
         <v>9</v>
